--- a/src/main/webapp/WEB-INF/excel/orders.xlsx
+++ b/src/main/webapp/WEB-INF/excel/orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>&lt;jx:forEach var="orders" items="${ordersList}" varStaus="status"&gt;</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${orders.orders_num}</t>
+  </si>
+  <si>
+    <t>${orders.orders_date}</t>
+  </si>
+  <si>
+    <t>${orders.orders_content}</t>
+  </si>
+  <si>
+    <t>${orders.orders_price}</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
   <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -967,22 +979,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/src/main/webapp/WEB-INF/excel/orders.xlsx
+++ b/src/main/webapp/WEB-INF/excel/orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>&lt;jx:forEach var="orders" items="${ordersList}" varStaus="status"&gt;</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>${orders.orders_price}</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>후원번호</t>
+  </si>
+  <si>
+    <t>후원 프로젝트번호</t>
+  </si>
+  <si>
+    <t>후원일</t>
+  </si>
+  <si>
+    <t>후원자id</t>
+  </si>
+  <si>
+    <t>후원 리워드 항목</t>
+  </si>
+  <si>
+    <t>후원액</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach var="orders" items="${ordersList}" varStatus="status"&gt;</t>
   </si>
 </sst>
 </file>
@@ -639,8 +663,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,20 +994,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:11">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
@@ -990,14 +1046,16 @@
       <c r="E3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
